--- a/Data Files/SFDC/LogInDetails.xlsx
+++ b/Data Files/SFDC/LogInDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Katalon Studio\My First Web UI Project\Data Files\SFDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Katalon Studio\My First Web UI Project\Data Files\SFDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED179B8D-FC14-4135-A1B0-5087622D97F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2345D18E-95FC-4477-988C-EAEEFDC131FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>Cdns1234</t>
   </si>
   <si>
-    <t>WebSite</t>
-  </si>
-  <si>
-    <t>Salesforce.com - HFX</t>
+    <t>HFX</t>
+  </si>
+  <si>
+    <t>Environment</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -436,12 +436,12 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://urldefense.com/v3/__https:/cadence.oktapreview.com/__;!!EHscmS1ygiU1lA!E6M9_UxW-WQNFXLR7Ah7bJqEiUq_8CDwM2tLsvT35ZKCT-5uUnsylhI3_wnrgXNK1zESEuQn-pqHS8ZgZP3TlccjPiON$" xr:uid="{3F56710A-F827-4380-BF4F-46573E59EDF4}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3F56710A-F827-4380-BF4F-46573E59EDF4}"/>
     <hyperlink ref="B2" r:id="rId2" display="mailto:internalcossupportadmin@cadence.com/Cdns1234" xr:uid="{2FDEFACC-84D7-4971-A2D8-61D99298AEE3}"/>
     <hyperlink ref="C2" r:id="rId3" display="mailto:internalcossupportadmin@cadence.com/Cdns1234" xr:uid="{ABB834DB-C797-4BCA-8F2C-3EB4BD2F7743}"/>
   </hyperlinks>
